--- a/Bug tracking System DataDictionry.xlsx
+++ b/Bug tracking System DataDictionry.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
   <si>
     <t>Sr. No:  1</t>
   </si>
@@ -310,10 +310,10 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -1386,8 +1386,15 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
+      <c r="A90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="4">
+        <v>500.0</v>
+      </c>
       <c r="D90" s="5"/>
     </row>
   </sheetData>
